--- a/natmiOut/OldD0/LR-pairs_lrc2p/Edn1-Ednra.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Edn1-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Edn1</t>
   </si>
   <si>
     <t>Ednra</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.98286514224322</v>
+        <v>9.957023333333334</v>
       </c>
       <c r="H2">
-        <v>5.98286514224322</v>
+        <v>29.87107</v>
       </c>
       <c r="I2">
-        <v>0.7048653037342318</v>
+        <v>0.7839926662698464</v>
       </c>
       <c r="J2">
-        <v>0.7048653037342318</v>
+        <v>0.7839926662698464</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.16206801479283</v>
+        <v>1.508394</v>
       </c>
       <c r="N2">
-        <v>1.16206801479283</v>
+        <v>4.525182</v>
       </c>
       <c r="O2">
-        <v>0.02194779832797636</v>
+        <v>0.0276475339394655</v>
       </c>
       <c r="P2">
-        <v>0.02194779832797636</v>
+        <v>0.0276475339394655</v>
       </c>
       <c r="Q2">
-        <v>6.952496218619801</v>
+        <v>15.01911425386</v>
       </c>
       <c r="R2">
-        <v>6.952496218619801</v>
+        <v>135.17202828474</v>
       </c>
       <c r="S2">
-        <v>0.01547024153474672</v>
+        <v>0.02167546384898763</v>
       </c>
       <c r="T2">
-        <v>0.01547024153474672</v>
+        <v>0.02167546384898763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.98286514224322</v>
+        <v>9.957023333333334</v>
       </c>
       <c r="H3">
-        <v>5.98286514224322</v>
+        <v>29.87107</v>
       </c>
       <c r="I3">
-        <v>0.7048653037342318</v>
+        <v>0.7839926662698464</v>
       </c>
       <c r="J3">
-        <v>0.7048653037342318</v>
+        <v>0.7839926662698464</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.7995253467656</v>
+        <v>8.961352</v>
       </c>
       <c r="N3">
-        <v>8.7995253467656</v>
+        <v>26.884056</v>
       </c>
       <c r="O3">
-        <v>0.166195270185763</v>
+        <v>0.1642536920482958</v>
       </c>
       <c r="P3">
-        <v>0.166195270185763</v>
+        <v>0.1642536920482958</v>
       </c>
       <c r="Q3">
-        <v>52.64637346544959</v>
+        <v>89.22839096221334</v>
       </c>
       <c r="R3">
-        <v>52.64637346544959</v>
+        <v>803.05551865992</v>
       </c>
       <c r="S3">
-        <v>0.1171452795986806</v>
+        <v>0.1287736899736097</v>
       </c>
       <c r="T3">
-        <v>0.1171452795986806</v>
+        <v>0.1287736899736097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.98286514224322</v>
+        <v>9.957023333333334</v>
       </c>
       <c r="H4">
-        <v>5.98286514224322</v>
+        <v>29.87107</v>
       </c>
       <c r="I4">
-        <v>0.7048653037342318</v>
+        <v>0.7839926662698464</v>
       </c>
       <c r="J4">
-        <v>0.7048653037342318</v>
+        <v>0.7839926662698464</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.9853126299901</v>
+        <v>44.08824833333333</v>
       </c>
       <c r="N4">
-        <v>42.9853126299901</v>
+        <v>132.264745</v>
       </c>
       <c r="O4">
-        <v>0.8118569314862607</v>
+        <v>0.8080987740122387</v>
       </c>
       <c r="P4">
-        <v>0.8118569314862607</v>
+        <v>0.8080987740122386</v>
       </c>
       <c r="Q4">
-        <v>257.175328562395</v>
+        <v>438.9877173807944</v>
       </c>
       <c r="R4">
-        <v>257.175328562395</v>
+        <v>3950.88945642715</v>
       </c>
       <c r="S4">
-        <v>0.5722497826008046</v>
+        <v>0.6335435124472492</v>
       </c>
       <c r="T4">
-        <v>0.5722497826008046</v>
+        <v>0.633543512447249</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.50509008912826</v>
+        <v>2.539481333333333</v>
       </c>
       <c r="H5">
-        <v>2.50509008912826</v>
+        <v>7.618444</v>
       </c>
       <c r="I5">
-        <v>0.2951346962657682</v>
+        <v>0.1999528046497</v>
       </c>
       <c r="J5">
-        <v>0.2951346962657682</v>
+        <v>0.1999528046497</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.16206801479283</v>
+        <v>1.508394</v>
       </c>
       <c r="N5">
-        <v>1.16206801479283</v>
+        <v>4.525182</v>
       </c>
       <c r="O5">
-        <v>0.02194779832797636</v>
+        <v>0.0276475339394655</v>
       </c>
       <c r="P5">
-        <v>0.02194779832797636</v>
+        <v>0.0276475339394655</v>
       </c>
       <c r="Q5">
-        <v>2.91108506675047</v>
+        <v>3.830538406312</v>
       </c>
       <c r="R5">
-        <v>2.91108506675047</v>
+        <v>34.474845656808</v>
       </c>
       <c r="S5">
-        <v>0.006477556793229637</v>
+        <v>0.005528201952843896</v>
       </c>
       <c r="T5">
-        <v>0.006477556793229637</v>
+        <v>0.005528201952843896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.50509008912826</v>
+        <v>2.539481333333333</v>
       </c>
       <c r="H6">
-        <v>2.50509008912826</v>
+        <v>7.618444</v>
       </c>
       <c r="I6">
-        <v>0.2951346962657682</v>
+        <v>0.1999528046497</v>
       </c>
       <c r="J6">
-        <v>0.2951346962657682</v>
+        <v>0.1999528046497</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.7995253467656</v>
+        <v>8.961352</v>
       </c>
       <c r="N6">
-        <v>8.7995253467656</v>
+        <v>26.884056</v>
       </c>
       <c r="O6">
-        <v>0.166195270185763</v>
+        <v>0.1642536920482958</v>
       </c>
       <c r="P6">
-        <v>0.166195270185763</v>
+        <v>0.1642536920482958</v>
       </c>
       <c r="Q6">
-        <v>22.04360373521542</v>
+        <v>22.75718612542933</v>
       </c>
       <c r="R6">
-        <v>22.04360373521542</v>
+        <v>204.814675128864</v>
       </c>
       <c r="S6">
-        <v>0.04904999058708245</v>
+        <v>0.03284298639912486</v>
       </c>
       <c r="T6">
-        <v>0.04904999058708245</v>
+        <v>0.03284298639912486</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.539481333333333</v>
+      </c>
+      <c r="H7">
+        <v>7.618444</v>
+      </c>
+      <c r="I7">
+        <v>0.1999528046497</v>
+      </c>
+      <c r="J7">
+        <v>0.1999528046497</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>44.08824833333333</v>
+      </c>
+      <c r="N7">
+        <v>132.264745</v>
+      </c>
+      <c r="O7">
+        <v>0.8080987740122387</v>
+      </c>
+      <c r="P7">
+        <v>0.8080987740122386</v>
+      </c>
+      <c r="Q7">
+        <v>111.9612836618644</v>
+      </c>
+      <c r="R7">
+        <v>1007.65155295678</v>
+      </c>
+      <c r="S7">
+        <v>0.1615816162977312</v>
+      </c>
+      <c r="T7">
+        <v>0.1615816162977312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.50509008912826</v>
-      </c>
-      <c r="H7">
-        <v>2.50509008912826</v>
-      </c>
-      <c r="I7">
-        <v>0.2951346962657682</v>
-      </c>
-      <c r="J7">
-        <v>0.2951346962657682</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>42.9853126299901</v>
-      </c>
-      <c r="N7">
-        <v>42.9853126299901</v>
-      </c>
-      <c r="O7">
-        <v>0.8118569314862607</v>
-      </c>
-      <c r="P7">
-        <v>0.8118569314862607</v>
-      </c>
-      <c r="Q7">
-        <v>107.682080647468</v>
-      </c>
-      <c r="R7">
-        <v>107.682080647468</v>
-      </c>
-      <c r="S7">
-        <v>0.2396071488854561</v>
-      </c>
-      <c r="T7">
-        <v>0.2396071488854561</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.203899</v>
+      </c>
+      <c r="H8">
+        <v>0.611697</v>
+      </c>
+      <c r="I8">
+        <v>0.01605452908045364</v>
+      </c>
+      <c r="J8">
+        <v>0.01605452908045364</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.508394</v>
+      </c>
+      <c r="N8">
+        <v>4.525182</v>
+      </c>
+      <c r="O8">
+        <v>0.0276475339394655</v>
+      </c>
+      <c r="P8">
+        <v>0.0276475339394655</v>
+      </c>
+      <c r="Q8">
+        <v>0.307560028206</v>
+      </c>
+      <c r="R8">
+        <v>2.768040253854</v>
+      </c>
+      <c r="S8">
+        <v>0.0004438681376339779</v>
+      </c>
+      <c r="T8">
+        <v>0.0004438681376339778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.203899</v>
+      </c>
+      <c r="H9">
+        <v>0.611697</v>
+      </c>
+      <c r="I9">
+        <v>0.01605452908045364</v>
+      </c>
+      <c r="J9">
+        <v>0.01605452908045364</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.961352</v>
+      </c>
+      <c r="N9">
+        <v>26.884056</v>
+      </c>
+      <c r="O9">
+        <v>0.1642536920482958</v>
+      </c>
+      <c r="P9">
+        <v>0.1642536920482958</v>
+      </c>
+      <c r="Q9">
+        <v>1.827210711448</v>
+      </c>
+      <c r="R9">
+        <v>16.444896403032</v>
+      </c>
+      <c r="S9">
+        <v>0.002637015675561241</v>
+      </c>
+      <c r="T9">
+        <v>0.002637015675561241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.203899</v>
+      </c>
+      <c r="H10">
+        <v>0.611697</v>
+      </c>
+      <c r="I10">
+        <v>0.01605452908045364</v>
+      </c>
+      <c r="J10">
+        <v>0.01605452908045364</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>44.08824833333333</v>
+      </c>
+      <c r="N10">
+        <v>132.264745</v>
+      </c>
+      <c r="O10">
+        <v>0.8080987740122387</v>
+      </c>
+      <c r="P10">
+        <v>0.8080987740122386</v>
+      </c>
+      <c r="Q10">
+        <v>8.989549746918334</v>
+      </c>
+      <c r="R10">
+        <v>80.90594772226501</v>
+      </c>
+      <c r="S10">
+        <v>0.01297364526725842</v>
+      </c>
+      <c r="T10">
+        <v>0.01297364526725842</v>
       </c>
     </row>
   </sheetData>
